--- a/nexFilesVPFP/vpfp_metadata_template.xlsx
+++ b/nexFilesVPFP/vpfp_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dakota\Desktop\VPFPanalysis\nexFilesVPFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9552B0E-AF0D-43F3-AD71-F7080199F354}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384757D-AB2D-4F6A-8A92-D30F042F675F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17415" yWindow="4770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
-  <si>
-    <t>Stage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Day</t>
   </si>
@@ -62,12 +59,6 @@
     <t>VPFP5and6-190201-160216.nex</t>
   </si>
   <si>
-    <t>Box1Rat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box2Rat </t>
-  </si>
-  <si>
     <t>Structure- currently irrelevant</t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>Exclude from analysis 1=yes 0=no</t>
   </si>
   <si>
-    <t>Box1 DS PE latency (avg)</t>
-  </si>
-  <si>
-    <t>Box2 DS PE latency</t>
-  </si>
-  <si>
     <t>VPFP2and3-190221-154747.nex</t>
   </si>
   <si>
@@ -270,6 +255,18 @@
   </si>
   <si>
     <t>VPFP2and3-190220-152334_VPFP2and3-190220-152334.nex</t>
+  </si>
+  <si>
+    <t>BoxA Rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoxB Rat </t>
+  </si>
+  <si>
+    <t>Stage A</t>
+  </si>
+  <si>
+    <t>Stage B</t>
   </si>
 </sst>
 </file>
@@ -599,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K991"/>
+  <dimension ref="A1:L991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,51 +607,48 @@
     <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="143.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="29" width="8.7109375" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="143.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="30" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -669,21 +663,18 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>20.321000000000002</v>
-      </c>
-      <c r="G2">
-        <v>25.89</v>
-      </c>
-      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -698,18 +689,15 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>15.987</v>
-      </c>
-      <c r="G3">
-        <v>11.076000000000001</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -724,18 +712,15 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>6.3659999999999997</v>
-      </c>
-      <c r="G4">
-        <v>8.1430000000000007</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -750,18 +735,15 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>3.258</v>
-      </c>
-      <c r="G5">
-        <v>6.4240000000000004</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -773,21 +755,18 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2.875</v>
-      </c>
-      <c r="G6">
-        <v>5.266</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -799,21 +778,18 @@
         <v>4</v>
       </c>
       <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="G7">
-        <v>5.9459999999999997</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -825,369 +801,321 @@
         <v>4</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>3.556</v>
-      </c>
-      <c r="G8">
-        <v>5.2240000000000002</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="G9">
-        <v>3.7309999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>2.4630000000000001</v>
-      </c>
-      <c r="G10">
-        <v>2.8929999999999998</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="G11">
-        <v>2.2309999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>1.4419999999999999</v>
-      </c>
-      <c r="G12">
-        <v>4.9950000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>12</v>
-      </c>
-      <c r="F13">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="G13">
-        <v>1.954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G14">
-        <v>1.9139999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="G15">
-        <v>1.7290000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="G16">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="G17">
-        <v>1.772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>9999</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1202,15 +1130,12 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>31.78</v>
-      </c>
-      <c r="G25">
-        <v>18.829999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1225,15 +1150,12 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>12.708</v>
-      </c>
-      <c r="G26">
-        <v>15.231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1248,15 +1170,12 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <v>9.2530000000000001</v>
-      </c>
-      <c r="G27">
-        <v>6.9909999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1271,15 +1190,12 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>6.9139999999999997</v>
-      </c>
-      <c r="G28">
-        <v>5.4640000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1291,18 +1207,15 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>6.5949999999999998</v>
-      </c>
-      <c r="G29">
-        <v>5.6829999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -1314,18 +1227,15 @@
         <v>4</v>
       </c>
       <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="F30">
-        <v>8.3249999999999993</v>
-      </c>
-      <c r="G30">
-        <v>6.4770000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -1337,18 +1247,15 @@
         <v>4</v>
       </c>
       <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
         <v>7</v>
       </c>
-      <c r="F31">
-        <v>4.0019999999999998</v>
-      </c>
-      <c r="G31">
-        <v>5.6219999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1360,18 +1267,15 @@
         <v>5</v>
       </c>
       <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="F32">
-        <v>2.653</v>
-      </c>
-      <c r="G32">
-        <v>4.6840000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1383,18 +1287,15 @@
         <v>5</v>
       </c>
       <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
         <v>9</v>
       </c>
-      <c r="F33">
-        <v>2.37</v>
-      </c>
-      <c r="G33">
-        <v>5.1539999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1406,18 +1307,15 @@
         <v>5</v>
       </c>
       <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
         <v>10</v>
       </c>
-      <c r="F34">
-        <v>2.6240000000000001</v>
-      </c>
-      <c r="G34">
-        <v>5.3959999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1429,18 +1327,15 @@
         <v>5</v>
       </c>
       <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
         <v>11</v>
       </c>
-      <c r="F35">
-        <v>2.6240000000000001</v>
-      </c>
-      <c r="G35">
-        <v>4.3970000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1452,18 +1347,15 @@
         <v>5</v>
       </c>
       <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
         <v>12</v>
       </c>
-      <c r="F36">
-        <v>3.0670000000000002</v>
-      </c>
-      <c r="G36">
-        <v>4.617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -1475,18 +1367,15 @@
         <v>5</v>
       </c>
       <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
         <v>13</v>
       </c>
-      <c r="F37">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="G37">
-        <v>4.2069999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -1498,18 +1387,15 @@
         <v>5</v>
       </c>
       <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
         <v>14</v>
       </c>
-      <c r="F38">
-        <v>2.0270000000000001</v>
-      </c>
-      <c r="G38">
-        <v>5.2279999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -1521,18 +1407,15 @@
         <v>5</v>
       </c>
       <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
         <v>15</v>
       </c>
-      <c r="F39">
-        <v>2.9239999999999999</v>
-      </c>
-      <c r="G39">
-        <v>5.141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1544,18 +1427,15 @@
         <v>5</v>
       </c>
       <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>16</v>
       </c>
-      <c r="F40">
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="G40">
-        <v>3.4980000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -1567,18 +1447,15 @@
         <v>5</v>
       </c>
       <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
         <v>17</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1590,18 +1467,15 @@
         <v>5</v>
       </c>
       <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
         <v>18</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -1613,18 +1487,15 @@
         <v>5</v>
       </c>
       <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
         <v>19</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1636,18 +1507,15 @@
         <v>5</v>
       </c>
       <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>20</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1659,19 +1527,16 @@
         <v>5</v>
       </c>
       <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
         <v>9999</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -1686,15 +1551,12 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1706,19 +1568,16 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <f>SUM(E47+1)</f>
         <v>2</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(F47+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -1730,19 +1589,16 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E66" si="0">SUM(E48+1)</f>
         <v>3</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F49:F66" si="0">SUM(F48+1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -1754,19 +1610,16 @@
         <v>4</v>
       </c>
       <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -1778,19 +1631,16 @@
         <v>4</v>
       </c>
       <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1802,19 +1652,16 @@
         <v>4</v>
       </c>
       <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -1826,19 +1673,16 @@
         <v>4</v>
       </c>
       <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -1850,19 +1694,16 @@
         <v>5</v>
       </c>
       <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -1874,19 +1715,16 @@
         <v>5</v>
       </c>
       <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -1898,19 +1736,16 @@
         <v>5</v>
       </c>
       <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1922,19 +1757,16 @@
         <v>5</v>
       </c>
       <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1946,19 +1778,16 @@
         <v>5</v>
       </c>
       <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -1970,19 +1799,16 @@
         <v>5</v>
       </c>
       <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -1994,19 +1820,16 @@
         <v>5</v>
       </c>
       <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -2018,19 +1841,16 @@
         <v>5</v>
       </c>
       <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -2042,19 +1862,16 @@
         <v>5</v>
       </c>
       <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -2066,19 +1883,16 @@
         <v>5</v>
       </c>
       <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -2090,19 +1904,16 @@
         <v>5</v>
       </c>
       <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -2114,19 +1925,16 @@
         <v>5</v>
       </c>
       <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -2138,30 +1946,27 @@
         <v>5</v>
       </c>
       <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
